--- a/IIC-2 SEC-11 MARKS.xlsx
+++ b/IIC-2 SEC-11 MARKS.xlsx
@@ -249,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,9 +281,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,12 +883,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>15</v>
+      <c r="B40" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,11 +1099,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>16</v>
       </c>
     </row>

--- a/IIC-2 SEC-11 MARKS.xlsx
+++ b/IIC-2 SEC-11 MARKS.xlsx
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,11 +915,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>15</v>
       </c>
     </row>
